--- a/EXPORT_FILES/ВУНЦ=П7_Казаки-24.xlsx
+++ b/EXPORT_FILES/ВУНЦ=П7_Казаки-24.xlsx
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>С В Е Д Е Н И Я</t>
   </si>
@@ -682,10 +682,7 @@
     <t>${cossack_success_Уссурийское ВКО}</t>
   </si>
   <si>
-    <t>123 Asdas Dasd</t>
-  </si>
-  <si>
-    <t>ВКО "Всевеликое войско Донское"</t>
+    <t>Беляев Артем Сергеевич</t>
   </si>
   <si>
     <t/>
@@ -2006,7 +2003,7 @@
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="8">
@@ -2390,14 +2387,14 @@
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="26">
         <f si="3" t="shared"/>
@@ -2419,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="8">
         <v>0</v>
@@ -2715,10 +2712,10 @@
         <v>190</v>
       </c>
       <c r="C2" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>191</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
